--- a/biology/Botanique/Prunus/Prunus.xlsx
+++ b/biology/Botanique/Prunus/Prunus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus est un genre de plantes à fleurs qui regroupe plus de 300 espèces d'arbres et arbustes de la famille des Rosacées, dont beaucoup sont cultivées pour leurs fruits (abricotier, amandier, cerisier, pêcher, prunier) ou pour leur valeur ornementale (cerisier du Japon, cerisier de Virginie, laurier-cerise...). Certaines espèces ornementales n'ayant pas de nom commun sont simplement appelées « prunus ». Le noyau des fruits est toxique.
 Ce genre est le seul représentant de la tribu des Amygdaleae.
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fleur
-La fleur à cinq pétales et cinq sépales est habituellement blanche en passant par toutes les nuances jusqu'au rose. Elle peut être soutenue séparément mais être en grappe ou en ombelle.
-Feuille
-La feuille est simple et généralement lancéolée. Son pourtour est denté.
-Fruit
-Le fruit de tous les Prunus est une drupe avec un gros noyau.
+          <t>Fleur</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur à cinq pétales et cinq sépales est habituellement blanche en passant par toutes les nuances jusqu'au rose. Elle peut être soutenue séparément mais être en grappe ou en ombelle.
 </t>
         </is>
       </c>
@@ -545,10 +558,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille est simple et généralement lancéolée. Son pourtour est denté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de tous les Prunus est une drupe avec un gros noyau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prunus armeniaca L. (Abricotier)
 Prunus avium (L.) L.
@@ -590,33 +679,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Prunus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prunus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est décrit par le naturaliste suédois Carl von Linné en 1753, dans son ouvrage Species Plantarum fondateur de la nomenclature botanique moderne. Selon Plants of the World online (POWO)                (20 mars 2021)[1], les genres suivants sont inclus dans le genre Prunus et sont donc synonymes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est décrit par le naturaliste suédois Carl von Linné en 1753, dans son ouvrage Species Plantarum fondateur de la nomenclature botanique moderne. Selon Plants of the World online (POWO)                (20 mars 2021), les genres suivants sont inclus dans le genre Prunus et sont donc synonymes :
 Aflatunia Vassilcz.
 + Amygdalopersica Delpino ex L.L.Daniel
 Amygdalophora Neck.
@@ -657,37 +748,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Prunus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prunus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (20 mars 2021)[2], le genre Prunus est divisé en 2 clades, 4 sous-genres et 7 sections.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (20 mars 2021), le genre Prunus est divisé en 2 clades, 4 sous-genres et 7 sections.
 Les espèces nommées merisiers ne forment pas un groupe à part entière.
-Clade Amygdalus-Prunus
-Sous-genre Amygdalus (amandiers et pêchers)
-Les amandiers et les pêchers ne sont pas réellement dissociés dans la plupart des classifications. Ils forment le sous-genre Amygdalus (du grec signifiant « amande »). Celui-ci regroupe des espèces fruitières et des espèces ornementales. Il comprend les 42 espèces suivantes[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Clade Amygdalus-Prunus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sous-genre Amygdalus (amandiers et pêchers)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amandiers et les pêchers ne sont pas réellement dissociés dans la plupart des classifications. Ils forment le sous-genre Amygdalus (du grec signifiant « amande »). Celui-ci regroupe des espèces fruitières et des espèces ornementales. Il comprend les 42 espèces suivantes :
 Prunus arabica (Olivier) Meikle
 Prunus argentea (Lam.) Rehder
 Prunus brahuica (Boiss.) Aitch. &amp; Hemsl.
@@ -730,9 +861,48 @@
 Prunus ×balansae (Boiss.) Fritsch
 Prunus ×persicoides (Ser.) M. Vilm. &amp; Bois
 Prunus ×vavilovii (Popov) A. E. Murray
-Sous-genre Prunus
-Section Armeniaca (les abricotiers)
-Elle comprend sept espèces[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Clade Amygdalus-Prunus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sous-genre Prunus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Section Armeniaca (les abricotiers)
+Elle comprend sept espèces :
 Prunus armeniaca L. Abricotier
 Prunus brigantina Vill. Abricotier (ou Prunier) de Briançon
 Prunus mandshurica (Maxim.) Koehne
@@ -741,7 +911,7 @@
 Prunus ×dasycarpa Ehrh.
 Prunus ×limeixing (J. Y. Zhang &amp; Z. M. Wang) Y. H. Tong &amp; N. H. Xia
 Section Microcerasus
-Elle comprend les espèces suivantes[5] :
+Elle comprend les espèces suivantes :
 Prunus bifrons Fritsch
 Prunus dictyoneura Diels
 Prunus glandulosa Thunb.
@@ -751,7 +921,7 @@
 Prunus prostrata Labill.
 Prunus tomentosa Thunb.
 Section Penarmeniaca
-Elle comprend trois espèces[6] :
+Elle comprend trois espèces :
 Prunus andersonii A.Gray
 Prunus fremontii S.Watson
 Prunus pumila L. Cerisier des sables
@@ -760,7 +930,7 @@
 Prunus pumila L. var. pumila
 Prunus pumila L. var. susquehanae (hort. ex Willd.) H. Jaeger
 Section Prunocerasus
-Elle comprend les espèces suivantes[7] :
+Elle comprend les espèces suivantes :
 Prunus americana Marshall
 Prunus angustifolia Marshall
 Prunus geniculata R. M. Harper
@@ -775,7 +945,7 @@
 Prunus umbellata Elliott
 Prunus ×orthosepala Koehne
 Section Prunus (les pruniers)
-Elle comprend les espèces suivantes[8] :
+Elle comprend les espèces suivantes :
 Prunus bokhariensis Royle ex C. K. Schneid.
 Prunus cerasifera Ehrh.
 Prunus cocomilia Ten.
@@ -791,10 +961,48 @@
 Prunus ×fruticans Weihe
 Prunus ×rossica Eremin
 Prunus ×simmleri Palez.
-Clade Cerasus-Laurocerasus-Padus
-Sous-genre Cerasus
-Section Cerasus (les cerisiers)
-La classification de GRIN comporte 50 espèces de cerisiers[9] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Clade Cerasus-Laurocerasus-Padus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sous-genre Cerasus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Section Cerasus (les cerisiers)
+La classification de GRIN comporte 50 espèces de cerisiers :
 Prunus alaica (Pojark.) Gilli
 Prunus apetala (Siebold &amp; Zucc.) Franch. &amp; Sav.
 Prunus avium (L.) L.
@@ -846,7 +1054,7 @@
 Prunus ×tschonoskii Koehne
 Prunus ×yedoensis Matsum.
 Section Laurocerasus (les lauriers-cerises)
-Elle comprend les vingt-sept espèces suivantes[10] :
+Elle comprend les vingt-sept espèces suivantes :
 Prunus brachypoda Batalin
 Prunus bracteopadus Koehne
 Prunus buergeriana Miq.
@@ -874,42 +1082,121 @@
 Prunus virginiana L.
 Prunus wilsonii (Diels ex C. K. Schneid.) Koehne
 Prunus zippeliana Miq.
-Sous-genre Emplectocladus
-Prunus fasciculata (Californie, Arizona)
-Espèces dont le sous-genre est discuté
-Prunus alabamensis C.Mohr
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Clade Cerasus-Laurocerasus-Padus</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-genre Emplectocladus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Prunus fasciculata (Californie, Arizona)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prunus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Clade Cerasus-Laurocerasus-Padus</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Espèces dont le sous-genre est discuté</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prunus alabamensis C.Mohr
 Prunus occidentalis Sw.
 Prunus pleuradenia Griseb.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Prunus</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prunus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines contiennent de l'amygdaline et des glycosides cyanogènes. Il peut se passer plusieurs heures avant que le poison fasse son effet, car les glycosides cyanogènes doivent être hydrolysés avant que l'ion cyanure soit libéré[11].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines contiennent de l'amygdaline et des glycosides cyanogènes. Il peut se passer plusieurs heures avant que le poison fasse son effet, car les glycosides cyanogènes doivent être hydrolysés avant que l'ion cyanure soit libéré.
 </t>
         </is>
       </c>
